--- a/biology/Zoologie/Euthalia_kanda/Euthalia_kanda.xlsx
+++ b/biology/Zoologie/Euthalia_kanda/Euthalia_kanda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euthalia kanda est une espèce de papillon de la famille des Nymphalidae, de la sous-famille des Limenitidinae et du genre Euthalia.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euthalia kanda a été décrit  par Frederic Moore en 1859 sous le nom initial d' Adolias kanda[1].
-Sous-espèces
-Euthalia kanda kanda ; présent à Bornéo
-Euthalia kandaatys Fruhstorfer, 1906 ; présent dans le nord-est de Sumatra.
-Euthalia kanda elicius de Nicéville, 1890 ; présent en Birmanie et en Thaïlande.
-Euthalia kanda marana Corbet, 1937 ; présent en Malaisie.
-Euthalia kanda mitschkei Lathy, 1913 ; présent à Nias[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euthalia kanda a été décrit  par Frederic Moore en 1859 sous le nom initial d' Adolias kanda.
+</t>
         </is>
       </c>
     </row>
@@ -544,13 +553,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un grand papillon aux ailes brunes marbrées. Les femelles ressemblent beaucoup aux femelles de Tanaecia iapis
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Euthalia kanda kanda ; présent à Bornéo
+Euthalia kandaatys Fruhstorfer, 1906 ; présent dans le nord-est de Sumatra.
+Euthalia kanda elicius de Nicéville, 1890 ; présent en Birmanie et en Thaïlande.
+Euthalia kanda marana Corbet, 1937 ; présent en Malaisie.
+Euthalia kanda mitschkei Lathy, 1913 ; présent à Nias.</t>
         </is>
       </c>
     </row>
@@ -575,12 +593,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon aux ailes brunes marbrées. Les femelles ressemblent beaucoup aux femelles de Tanaecia iapis
+</t>
         </is>
       </c>
     </row>
@@ -608,14 +629,87 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euthalia kanda est présent en Birmanie, en Thaïlande, en Malaisie, à Bornéo, à Sumatra et à Nias [1].
-Biotope
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euthalia kanda est présent en Birmanie, en Thaïlande, en Malaisie, à Bornéo, à Sumatra et à Nias .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euthalia_kanda</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euthalia_kanda</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Euthalia kanda, sur Wikimedia CommonsEuthalia kanda, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euthalia_kanda</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euthalia_kanda</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
